--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H2">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.298807</v>
+        <v>0.5306206666666666</v>
       </c>
       <c r="N2">
-        <v>0.8964210000000001</v>
+        <v>1.591862</v>
       </c>
       <c r="O2">
-        <v>0.1375952161456007</v>
+        <v>0.2609258655515381</v>
       </c>
       <c r="P2">
-        <v>0.1375952161456007</v>
+        <v>0.260925865551538</v>
       </c>
       <c r="Q2">
-        <v>0.09873111172366668</v>
+        <v>0.8087562783868889</v>
       </c>
       <c r="R2">
-        <v>0.8885800055130001</v>
+        <v>7.278806505482001</v>
       </c>
       <c r="S2">
-        <v>0.1375952161456007</v>
+        <v>0.2609258655515381</v>
       </c>
       <c r="T2">
-        <v>0.1375952161456007</v>
+        <v>0.260925865551538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H3">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>3.734983</v>
       </c>
       <c r="O3">
-        <v>0.5732973604870302</v>
+        <v>0.61220989765148</v>
       </c>
       <c r="P3">
-        <v>0.5732973604870303</v>
+        <v>0.6122098976514799</v>
       </c>
       <c r="Q3">
-        <v>0.4113681226332222</v>
+        <v>1.897583428034778</v>
       </c>
       <c r="R3">
-        <v>3.702313103699</v>
+        <v>17.078250852313</v>
       </c>
       <c r="S3">
-        <v>0.5732973604870302</v>
+        <v>0.61220989765148</v>
       </c>
       <c r="T3">
-        <v>0.5732973604870303</v>
+        <v>0.6122098976514799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H4">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6278366666666667</v>
+        <v>0.257992</v>
       </c>
       <c r="N4">
-        <v>1.88351</v>
+        <v>0.773976</v>
       </c>
       <c r="O4">
-        <v>0.2891074233673691</v>
+        <v>0.1268642367969819</v>
       </c>
       <c r="P4">
-        <v>0.2891074233673691</v>
+        <v>0.1268642367969819</v>
       </c>
       <c r="Q4">
-        <v>0.2074483264477778</v>
+        <v>0.3932237526373333</v>
       </c>
       <c r="R4">
-        <v>1.86703493803</v>
+        <v>3.539013773736</v>
       </c>
       <c r="S4">
-        <v>0.2891074233673691</v>
+        <v>0.1268642367969819</v>
       </c>
       <c r="T4">
-        <v>0.2891074233673691</v>
+        <v>0.1268642367969819</v>
       </c>
     </row>
   </sheetData>
